--- a/Budget Allocation.xlsx
+++ b/Budget Allocation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CODE\PRP\Febten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6392EA0D-39E4-488E-9A81-08023CB28D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017E255D-3279-47DD-B41F-D841844ABA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6C5773D1-A21B-433B-93D0-FE7E48505CDF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Budget</t>
   </si>
@@ -69,7 +69,49 @@
     <t>Miscellaneous/Accomodation</t>
   </si>
   <si>
-    <t xml:space="preserve">BGC </t>
+    <t>Reranking</t>
+  </si>
+  <si>
+    <t>Scraping of Textbooks</t>
+  </si>
+  <si>
+    <t>Auth Creation</t>
+  </si>
+  <si>
+    <t>Database Migration</t>
+  </si>
+  <si>
+    <t>SSL/TSL</t>
+  </si>
+  <si>
+    <t>Vectorization</t>
+  </si>
+  <si>
+    <t>Voice Control</t>
+  </si>
+  <si>
+    <t>Embedding Model Selection</t>
+  </si>
+  <si>
+    <t>Speech Recognition</t>
+  </si>
+  <si>
+    <t>Knowledge Base Creation</t>
+  </si>
+  <si>
+    <t>Fine Tuning</t>
+  </si>
+  <si>
+    <t>Ui/Ux Design</t>
+  </si>
+  <si>
+    <t>Text Preprocessing</t>
+  </si>
+  <si>
+    <t>Chat Model Selection</t>
+  </si>
+  <si>
+    <t>Unit Testing</t>
   </si>
 </sst>
 </file>
@@ -421,15 +463,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B19D10-C90B-4BEF-A89A-D73292F7115E}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -455,18 +501,18 @@
       </c>
       <c r="B2">
         <f>E2*0.4</f>
-        <v>76000</v>
+        <v>64000</v>
       </c>
       <c r="C2">
         <f>E2*0.3</f>
-        <v>57000</v>
+        <v>48000</v>
       </c>
       <c r="D2">
         <f>E2*0.3</f>
-        <v>57000</v>
+        <v>48000</v>
       </c>
       <c r="E2">
-        <v>190000</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -474,16 +520,19 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B17" si="0">E3*0.4</f>
-        <v>0</v>
+        <f t="shared" ref="B3:B10" si="0">E3*0.4</f>
+        <v>4000</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C19" si="1">E3*0.3</f>
-        <v>0</v>
+        <f t="shared" ref="C3:C10" si="1">E3*0.3</f>
+        <v>3000</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D19" si="2">E3*0.3</f>
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="E3">
+        <v>10000</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -492,15 +541,18 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="D4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9000</v>
+      </c>
+      <c r="E4">
+        <v>30000</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -569,18 +621,18 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>10800</v>
+        <v>10400</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>8100</v>
+        <v>7800</v>
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>8100</v>
+        <v>7800</v>
       </c>
       <c r="E8">
-        <v>27000</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -609,47 +661,41 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="D10">
         <f t="shared" si="2"/>
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="E10">
-        <v>35000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
       <c r="B11">
-        <f t="shared" si="0"/>
-        <v>20000</v>
+        <f t="shared" ref="B3:B17" si="3">E11*0.4</f>
+        <v>0</v>
       </c>
       <c r="C11">
-        <f t="shared" si="1"/>
-        <v>15000</v>
+        <f t="shared" ref="C3:C19" si="4">E11*0.3</f>
+        <v>0</v>
       </c>
       <c r="D11">
         <f t="shared" si="2"/>
-        <v>15000</v>
-      </c>
-      <c r="E11">
-        <v>50000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D12">
@@ -659,11 +705,11 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D13">
@@ -673,11 +719,11 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D14">
@@ -687,11 +733,11 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D15">
@@ -701,29 +747,29 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16">
-        <f t="shared" si="0"/>
-        <v>146400</v>
+        <f t="shared" si="3"/>
+        <v>128000</v>
       </c>
       <c r="C16">
-        <f t="shared" si="1"/>
-        <v>109800</v>
+        <f t="shared" si="4"/>
+        <v>96000</v>
       </c>
       <c r="D16">
         <f t="shared" si="2"/>
-        <v>109800</v>
+        <v>96000</v>
       </c>
       <c r="E16">
         <f>E2+E3+E4+E5+E6+E7+E8+E9+E10+E11+E12+E13+E14+E15</f>
-        <v>366000</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D17">
@@ -731,9 +777,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D18">
@@ -741,9 +787,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D19">
@@ -751,7 +797,130 @@
         <v>0</v>
       </c>
     </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A20:B34">
+    <sortCondition ref="B20:B34"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>